--- a/闽南文化研究信息资源数据库建设/数据分类.xlsx
+++ b/闽南文化研究信息资源数据库建设/数据分类.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProject\Minnan\闽南文化研究信息资源数据库建设\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECE5707-6AA3-46CF-B1A7-AB9B1B107186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E82F200-A7EE-4BE7-A459-9298F7F71C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-130" yWindow="1050" windowWidth="9880" windowHeight="9070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总库分支" sheetId="4" r:id="rId1"/>
@@ -1541,6 +1541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1571,7 +1572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1870,7 +1870,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>358</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1878,19 +1878,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="2" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="2" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>361</v>
       </c>
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1920,7 +1920,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -1931,7 +1931,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
@@ -1940,7 +1940,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1949,116 +1949,116 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="22" t="s">
         <v>369</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="22" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="22" t="s">
         <v>378</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="22" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="22" t="s">
         <v>370</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="22" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="22" t="s">
         <v>371</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="22" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="22" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="22" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="22" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="22" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="22" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="22" t="s">
         <v>377</v>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2097,79 +2097,79 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2177,157 +2177,157 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2335,169 +2335,169 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="30"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="30"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="30"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="30"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="30"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="30"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="30"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="31"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B68" s="12" t="s">
@@ -2505,46 +2505,46 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="24"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2552,148 +2552,148 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="27"/>
-      <c r="B76" s="25"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="27"/>
-      <c r="B77" s="25"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="27"/>
-      <c r="B78" s="25"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="27"/>
-      <c r="B79" s="25"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="27"/>
-      <c r="B80" s="25"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="27"/>
-      <c r="B81" s="25"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="27"/>
-      <c r="B82" s="25"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="27"/>
-      <c r="B83" s="25"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="27"/>
-      <c r="B84" s="25"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="26"/>
       <c r="C84" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="27"/>
-      <c r="B85" s="25"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="26"/>
       <c r="C85" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="27"/>
-      <c r="B86" s="25"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="27"/>
-      <c r="B87" s="25"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="27"/>
-      <c r="B88" s="25"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="27"/>
-      <c r="B89" s="25"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="27"/>
-      <c r="B90" s="25"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="27"/>
-      <c r="B91" s="25"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="27"/>
-      <c r="B92" s="25"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="27"/>
-      <c r="B93" s="25"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="27"/>
-      <c r="B94" s="25"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="26"/>
       <c r="C94" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="27"/>
-      <c r="B95" s="25"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="26"/>
       <c r="C95" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="27"/>
-      <c r="B96" s="25" t="s">
+      <c r="A96" s="28"/>
+      <c r="B96" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2701,43 +2701,43 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="27"/>
-      <c r="B97" s="25"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="27"/>
-      <c r="B98" s="25"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="27"/>
-      <c r="B99" s="25"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="27"/>
-      <c r="B100" s="25"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="27"/>
-      <c r="B101" s="25"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="26"/>
       <c r="C101" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="27"/>
-      <c r="B102" s="25" t="s">
+      <c r="A102" s="28"/>
+      <c r="B102" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2745,365 +2745,365 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="27"/>
-      <c r="B103" s="25"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="26"/>
       <c r="C103" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="27"/>
-      <c r="B104" s="25"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="26"/>
       <c r="C104" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="27"/>
-      <c r="B105" s="25"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="26"/>
       <c r="C105" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="27"/>
-      <c r="B106" s="25"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="27"/>
-      <c r="B107" s="25"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="26"/>
       <c r="C107" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="27"/>
-      <c r="B108" s="25"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="27"/>
-      <c r="B109" s="25"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="27"/>
-      <c r="B110" s="25"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="27"/>
-      <c r="B111" s="25"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="26"/>
       <c r="C111" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="27"/>
-      <c r="B112" s="25"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="26"/>
       <c r="C112" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="27"/>
-      <c r="B113" s="25"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="27"/>
-      <c r="B114" s="25"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="26"/>
       <c r="C114" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="27"/>
-      <c r="B115" s="25"/>
+      <c r="A115" s="28"/>
+      <c r="B115" s="26"/>
       <c r="C115" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="27"/>
-      <c r="B116" s="25"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="26"/>
       <c r="C116" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="27"/>
-      <c r="B117" s="25"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="26"/>
       <c r="C117" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="27"/>
-      <c r="B118" s="25"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="26"/>
       <c r="C118" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="27"/>
-      <c r="B119" s="25"/>
+      <c r="A119" s="28"/>
+      <c r="B119" s="26"/>
       <c r="C119" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="27"/>
-      <c r="B120" s="25"/>
+      <c r="A120" s="28"/>
+      <c r="B120" s="26"/>
       <c r="C120" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="27"/>
-      <c r="B121" s="25"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="26"/>
       <c r="C121" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="27"/>
-      <c r="B122" s="25"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="27"/>
-      <c r="B123" s="25"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="26"/>
       <c r="C123" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="27"/>
-      <c r="B124" s="25"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="27"/>
-      <c r="B125" s="25"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="27"/>
-      <c r="B126" s="25"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="26"/>
       <c r="C126" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="27"/>
-      <c r="B127" s="25"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="26"/>
       <c r="C127" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="27"/>
-      <c r="B128" s="25"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="27"/>
-      <c r="B129" s="25"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="26"/>
       <c r="C129" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="27"/>
-      <c r="B130" s="25"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="27"/>
-      <c r="B131" s="25"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="26"/>
       <c r="C131" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="27"/>
-      <c r="B132" s="25"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="26"/>
       <c r="C132" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="27"/>
-      <c r="B133" s="25"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="26"/>
       <c r="C133" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="27"/>
-      <c r="B134" s="25"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="26"/>
       <c r="C134" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="27"/>
-      <c r="B135" s="25"/>
+      <c r="A135" s="28"/>
+      <c r="B135" s="26"/>
       <c r="C135" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="27"/>
-      <c r="B136" s="25"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="26"/>
       <c r="C136" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="27"/>
-      <c r="B137" s="25"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="26"/>
       <c r="C137" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="27"/>
-      <c r="B138" s="25"/>
+      <c r="A138" s="28"/>
+      <c r="B138" s="26"/>
       <c r="C138" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="27"/>
-      <c r="B139" s="25"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="26"/>
       <c r="C139" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="27"/>
-      <c r="B140" s="25"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="26"/>
       <c r="C140" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="27"/>
-      <c r="B141" s="25"/>
+      <c r="A141" s="28"/>
+      <c r="B141" s="26"/>
       <c r="C141" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="27"/>
-      <c r="B142" s="25"/>
+      <c r="A142" s="28"/>
+      <c r="B142" s="26"/>
       <c r="C142" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="27"/>
-      <c r="B143" s="25"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="26"/>
       <c r="C143" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="27"/>
-      <c r="B144" s="25"/>
+      <c r="A144" s="28"/>
+      <c r="B144" s="26"/>
       <c r="C144" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="27"/>
-      <c r="B145" s="25"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="26"/>
       <c r="C145" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="27"/>
-      <c r="B146" s="25"/>
+      <c r="A146" s="28"/>
+      <c r="B146" s="26"/>
       <c r="C146" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="27"/>
-      <c r="B147" s="25"/>
+      <c r="A147" s="28"/>
+      <c r="B147" s="26"/>
       <c r="C147" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="27"/>
-      <c r="B148" s="25"/>
+      <c r="A148" s="28"/>
+      <c r="B148" s="26"/>
       <c r="C148" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="27"/>
-      <c r="B149" s="25"/>
+      <c r="A149" s="28"/>
+      <c r="B149" s="26"/>
       <c r="C149" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="27"/>
-      <c r="B150" s="25"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="26"/>
       <c r="C150" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="27"/>
-      <c r="B151" s="25"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="26"/>
       <c r="C151" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="27"/>
-      <c r="B152" s="25"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="26"/>
       <c r="C152" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="27"/>
-      <c r="B153" s="25"/>
+      <c r="A153" s="28"/>
+      <c r="B153" s="26"/>
       <c r="C153" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="27"/>
-      <c r="B154" s="26" t="s">
+      <c r="A154" s="28"/>
+      <c r="B154" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -3111,49 +3111,49 @@
       </c>
     </row>
     <row r="155" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="27"/>
-      <c r="B155" s="26"/>
+      <c r="A155" s="28"/>
+      <c r="B155" s="27"/>
       <c r="C155" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="27"/>
-      <c r="B156" s="26"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="27"/>
       <c r="C156" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="27"/>
-      <c r="B157" s="26"/>
+      <c r="A157" s="28"/>
+      <c r="B157" s="27"/>
       <c r="C157" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="27"/>
-      <c r="B158" s="26"/>
+      <c r="A158" s="28"/>
+      <c r="B158" s="27"/>
       <c r="C158" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="27"/>
-      <c r="B159" s="26"/>
+      <c r="A159" s="28"/>
+      <c r="B159" s="27"/>
       <c r="C159" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="28"/>
-      <c r="B160" s="22"/>
+      <c r="A160" s="29"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="22" t="s">
+      <c r="A161" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B161" s="7" t="s">
@@ -3161,67 +3161,67 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="23"/>
+      <c r="A162" s="24"/>
       <c r="B162" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="23"/>
+      <c r="A163" s="24"/>
       <c r="B163" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="23"/>
+      <c r="A164" s="24"/>
       <c r="B164" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="23"/>
+      <c r="A165" s="24"/>
       <c r="B165" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="23"/>
+      <c r="A166" s="24"/>
       <c r="B166" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="23"/>
+      <c r="A167" s="24"/>
       <c r="B167" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="23"/>
+      <c r="A168" s="24"/>
       <c r="B168" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="23"/>
+      <c r="A169" s="24"/>
       <c r="B169" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="23"/>
+      <c r="A170" s="24"/>
       <c r="B170" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="24"/>
+      <c r="A171" s="25"/>
       <c r="B171" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="22" t="s">
+      <c r="A172" s="23" t="s">
         <v>190</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -3229,115 +3229,115 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="23"/>
+      <c r="A173" s="24"/>
       <c r="B173" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="23"/>
+      <c r="A174" s="24"/>
       <c r="B174" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="23"/>
+      <c r="A175" s="24"/>
       <c r="B175" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="23"/>
+      <c r="A176" s="24"/>
       <c r="B176" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="23"/>
+      <c r="A177" s="24"/>
       <c r="B177" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="23"/>
+      <c r="A178" s="24"/>
       <c r="B178" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="23"/>
+      <c r="A179" s="24"/>
       <c r="B179" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="23"/>
+      <c r="A180" s="24"/>
       <c r="B180" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="23"/>
+      <c r="A181" s="24"/>
       <c r="B181" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="23"/>
+      <c r="A182" s="24"/>
       <c r="B182" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="23"/>
+      <c r="A183" s="24"/>
       <c r="B183" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="23"/>
+      <c r="A184" s="24"/>
       <c r="B184" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="23"/>
+      <c r="A185" s="24"/>
       <c r="B185" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="23"/>
+      <c r="A186" s="24"/>
       <c r="B186" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="23"/>
+      <c r="A187" s="24"/>
       <c r="B187" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="23"/>
+      <c r="A188" s="24"/>
       <c r="B188" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="23"/>
+      <c r="A189" s="24"/>
       <c r="B189" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="24"/>
+      <c r="A190" s="25"/>
       <c r="B190" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="22" t="s">
+      <c r="A191" s="23" t="s">
         <v>210</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -3345,37 +3345,37 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="23"/>
+      <c r="A192" s="24"/>
       <c r="B192" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="23"/>
+      <c r="A193" s="24"/>
       <c r="B193" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="23"/>
+      <c r="A194" s="24"/>
       <c r="B194" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="23"/>
+      <c r="A195" s="24"/>
       <c r="B195" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="24"/>
+      <c r="A196" s="25"/>
       <c r="B196" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="22" t="s">
+      <c r="A197" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -3383,211 +3383,211 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="23"/>
+      <c r="A198" s="24"/>
       <c r="B198" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="23"/>
+      <c r="A199" s="24"/>
       <c r="B199" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="23"/>
+      <c r="A200" s="24"/>
       <c r="B200" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="23"/>
+      <c r="A201" s="24"/>
       <c r="B201" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="23"/>
+      <c r="A202" s="24"/>
       <c r="B202" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="23"/>
+      <c r="A203" s="24"/>
       <c r="B203" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="23"/>
+      <c r="A204" s="24"/>
       <c r="B204" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="23"/>
+      <c r="A205" s="24"/>
       <c r="B205" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="23"/>
+      <c r="A206" s="24"/>
       <c r="B206" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="23"/>
+      <c r="A207" s="24"/>
       <c r="B207" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="23"/>
+      <c r="A208" s="24"/>
       <c r="B208" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="23"/>
+      <c r="A209" s="24"/>
       <c r="B209" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="23"/>
+      <c r="A210" s="24"/>
       <c r="B210" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="23"/>
+      <c r="A211" s="24"/>
       <c r="B211" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="23"/>
+      <c r="A212" s="24"/>
       <c r="B212" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="23"/>
+      <c r="A213" s="24"/>
       <c r="B213" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="23"/>
+      <c r="A214" s="24"/>
       <c r="B214" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="23"/>
+      <c r="A215" s="24"/>
       <c r="B215" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="23"/>
+      <c r="A216" s="24"/>
       <c r="B216" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="23"/>
+      <c r="A217" s="24"/>
       <c r="B217" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="23"/>
+      <c r="A218" s="24"/>
       <c r="B218" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="23"/>
+      <c r="A219" s="24"/>
       <c r="B219" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="23"/>
+      <c r="A220" s="24"/>
       <c r="B220" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="23"/>
+      <c r="A221" s="24"/>
       <c r="B221" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="23"/>
+      <c r="A222" s="24"/>
       <c r="B222" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="23"/>
+      <c r="A223" s="24"/>
       <c r="B223" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="23"/>
+      <c r="A224" s="24"/>
       <c r="B224" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="23"/>
+      <c r="A225" s="24"/>
       <c r="B225" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="23"/>
+      <c r="A226" s="24"/>
       <c r="B226" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="23"/>
+      <c r="A227" s="24"/>
       <c r="B227" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="23"/>
+      <c r="A228" s="24"/>
       <c r="B228" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="23"/>
+      <c r="A229" s="24"/>
       <c r="B229" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="23"/>
+      <c r="A230" s="24"/>
       <c r="B230" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="24"/>
+      <c r="A231" s="25"/>
       <c r="B231" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="22" t="s">
+      <c r="A232" s="23" t="s">
         <v>252</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -3595,67 +3595,67 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="23"/>
+      <c r="A233" s="24"/>
       <c r="B233" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="23"/>
+      <c r="A234" s="24"/>
       <c r="B234" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="23"/>
+      <c r="A235" s="24"/>
       <c r="B235" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="23"/>
+      <c r="A236" s="24"/>
       <c r="B236" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="23"/>
+      <c r="A237" s="24"/>
       <c r="B237" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="23"/>
+      <c r="A238" s="24"/>
       <c r="B238" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="23"/>
+      <c r="A239" s="24"/>
       <c r="B239" s="2" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="23"/>
+      <c r="A240" s="24"/>
       <c r="B240" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="23"/>
+      <c r="A241" s="24"/>
       <c r="B241" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="24"/>
+      <c r="A242" s="25"/>
       <c r="B242" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="22" t="s">
+      <c r="A243" s="23" t="s">
         <v>264</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -3663,199 +3663,199 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="23"/>
+      <c r="A244" s="24"/>
       <c r="B244" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="23"/>
+      <c r="A245" s="24"/>
       <c r="B245" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="23"/>
+      <c r="A246" s="24"/>
       <c r="B246" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="23"/>
+      <c r="A247" s="24"/>
       <c r="B247" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="23"/>
+      <c r="A248" s="24"/>
       <c r="B248" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="23"/>
+      <c r="A249" s="24"/>
       <c r="B249" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="23"/>
+      <c r="A250" s="24"/>
       <c r="B250" s="2" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="23"/>
+      <c r="A251" s="24"/>
       <c r="B251" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="23"/>
+      <c r="A252" s="24"/>
       <c r="B252" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="23"/>
+      <c r="A253" s="24"/>
       <c r="B253" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="23"/>
+      <c r="A254" s="24"/>
       <c r="B254" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="23"/>
+      <c r="A255" s="24"/>
       <c r="B255" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="23"/>
+      <c r="A256" s="24"/>
       <c r="B256" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="23"/>
+      <c r="A257" s="24"/>
       <c r="B257" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="23"/>
+      <c r="A258" s="24"/>
       <c r="B258" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="23"/>
+      <c r="A259" s="24"/>
       <c r="B259" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="23"/>
+      <c r="A260" s="24"/>
       <c r="B260" s="2" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="23"/>
+      <c r="A261" s="24"/>
       <c r="B261" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="23"/>
+      <c r="A262" s="24"/>
       <c r="B262" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="23"/>
+      <c r="A263" s="24"/>
       <c r="B263" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="23"/>
+      <c r="A264" s="24"/>
       <c r="B264" s="2" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="23"/>
+      <c r="A265" s="24"/>
       <c r="B265" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="23"/>
+      <c r="A266" s="24"/>
       <c r="B266" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="23"/>
+      <c r="A267" s="24"/>
       <c r="B267" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="23"/>
+      <c r="A268" s="24"/>
       <c r="B268" s="2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="23"/>
+      <c r="A269" s="24"/>
       <c r="B269" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="23"/>
+      <c r="A270" s="24"/>
       <c r="B270" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="23"/>
+      <c r="A271" s="24"/>
       <c r="B271" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="23"/>
+      <c r="A272" s="24"/>
       <c r="B272" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="23"/>
+      <c r="A273" s="24"/>
       <c r="B273" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="23"/>
+      <c r="A274" s="24"/>
       <c r="B274" s="2" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="24"/>
+      <c r="A275" s="25"/>
       <c r="B275" s="3" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="22" t="s">
+      <c r="A276" s="23" t="s">
         <v>298</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -3863,205 +3863,205 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="23"/>
+      <c r="A277" s="24"/>
       <c r="B277" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="23"/>
+      <c r="A278" s="24"/>
       <c r="B278" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="23"/>
+      <c r="A279" s="24"/>
       <c r="B279" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="23"/>
+      <c r="A280" s="24"/>
       <c r="B280" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="23"/>
+      <c r="A281" s="24"/>
       <c r="B281" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="23"/>
+      <c r="A282" s="24"/>
       <c r="B282" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="23"/>
+      <c r="A283" s="24"/>
       <c r="B283" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="23"/>
+      <c r="A284" s="24"/>
       <c r="B284" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="23"/>
+      <c r="A285" s="24"/>
       <c r="B285" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="23"/>
+      <c r="A286" s="24"/>
       <c r="B286" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="23"/>
+      <c r="A287" s="24"/>
       <c r="B287" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="23"/>
+      <c r="A288" s="24"/>
       <c r="B288" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="23"/>
+      <c r="A289" s="24"/>
       <c r="B289" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="23"/>
+      <c r="A290" s="24"/>
       <c r="B290" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="23"/>
+      <c r="A291" s="24"/>
       <c r="B291" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="23"/>
+      <c r="A292" s="24"/>
       <c r="B292" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="23"/>
+      <c r="A293" s="24"/>
       <c r="B293" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="23"/>
+      <c r="A294" s="24"/>
       <c r="B294" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="23"/>
+      <c r="A295" s="24"/>
       <c r="B295" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="23"/>
+      <c r="A296" s="24"/>
       <c r="B296" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="23"/>
+      <c r="A297" s="24"/>
       <c r="B297" s="2" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="23"/>
+      <c r="A298" s="24"/>
       <c r="B298" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="23"/>
+      <c r="A299" s="24"/>
       <c r="B299" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="23"/>
+      <c r="A300" s="24"/>
       <c r="B300" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="23"/>
+      <c r="A301" s="24"/>
       <c r="B301" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="23"/>
+      <c r="A302" s="24"/>
       <c r="B302" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="23"/>
+      <c r="A303" s="24"/>
       <c r="B303" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="23"/>
+      <c r="A304" s="24"/>
       <c r="B304" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="23"/>
+      <c r="A305" s="24"/>
       <c r="B305" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="23"/>
+      <c r="A306" s="24"/>
       <c r="B306" s="2" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="23"/>
+      <c r="A307" s="24"/>
       <c r="B307" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="23"/>
+      <c r="A308" s="24"/>
       <c r="B308" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="24"/>
+      <c r="A309" s="25"/>
       <c r="B309" s="3" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="22" t="s">
+      <c r="A310" s="23" t="s">
         <v>333</v>
       </c>
       <c r="B310" s="1" t="s">
@@ -4069,79 +4069,79 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="23"/>
+      <c r="A311" s="24"/>
       <c r="B311" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="23"/>
+      <c r="A312" s="24"/>
       <c r="B312" s="2" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="23"/>
+      <c r="A313" s="24"/>
       <c r="B313" s="2" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="23"/>
+      <c r="A314" s="24"/>
       <c r="B314" s="2" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="23"/>
+      <c r="A315" s="24"/>
       <c r="B315" s="2" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="23"/>
+      <c r="A316" s="24"/>
       <c r="B316" s="2" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="23"/>
+      <c r="A317" s="24"/>
       <c r="B317" s="2" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="23"/>
+      <c r="A318" s="24"/>
       <c r="B318" s="2" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="23"/>
+      <c r="A319" s="24"/>
       <c r="B319" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="23"/>
+      <c r="A320" s="24"/>
       <c r="B320" s="2" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="23"/>
+      <c r="A321" s="24"/>
       <c r="B321" s="2" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="23"/>
+      <c r="A322" s="24"/>
       <c r="B322" s="2" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="24"/>
+      <c r="A323" s="25"/>
       <c r="B323" s="3" t="s">
         <v>347</v>
       </c>
@@ -4149,6 +4149,13 @@
     <row r="324" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A276:A309"/>
+    <mergeCell ref="A310:A323"/>
+    <mergeCell ref="A172:A190"/>
+    <mergeCell ref="A191:A196"/>
+    <mergeCell ref="A197:A231"/>
+    <mergeCell ref="A232:A242"/>
+    <mergeCell ref="A243:A275"/>
     <mergeCell ref="B102:B153"/>
     <mergeCell ref="B154:B160"/>
     <mergeCell ref="A75:A160"/>
@@ -4159,13 +4166,6 @@
     <mergeCell ref="A68:A74"/>
     <mergeCell ref="B75:B95"/>
     <mergeCell ref="B96:B101"/>
-    <mergeCell ref="A276:A309"/>
-    <mergeCell ref="A310:A323"/>
-    <mergeCell ref="A172:A190"/>
-    <mergeCell ref="A191:A196"/>
-    <mergeCell ref="A197:A231"/>
-    <mergeCell ref="A232:A242"/>
-    <mergeCell ref="A243:A275"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4195,7 +4195,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>348</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -4209,7 +4209,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="16" t="s">
         <v>350</v>
       </c>
@@ -4218,7 +4218,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="17" t="s">
         <v>351</v>
       </c>
@@ -4227,7 +4227,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="18" t="s">
         <v>352</v>
       </c>
